--- a/document_questions.xlsx
+++ b/document_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J C SINGLA\Downloads\External - take_home_challenge_(withJSONs)\take_home_challenge_(withJSONs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730519BC-C968-4763-BCE5-F20FD3872CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3BA89-3C77-4AD0-8537-5C3EC2ED43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{64669878-3704-284B-BBDF-504411B4B1AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" xr2:uid="{64669878-3704-284B-BBDF-504411B4B1AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,13 +310,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,424 +632,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB2B0B8-EAD3-7344-9E32-2D8AC9F40062}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>44</v>
       </c>
     </row>

--- a/document_questions.xlsx
+++ b/document_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J C SINGLA\Downloads\External - take_home_challenge_(withJSONs)\take_home_challenge_(withJSONs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3BA89-3C77-4AD0-8537-5C3EC2ED43AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1318BC1-8C42-428E-8A5F-9DB4989A5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10660" xr2:uid="{64669878-3704-284B-BBDF-504411B4B1AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{64669878-3704-284B-BBDF-504411B4B1AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>What is meant by "computational finance"?</t>
   </si>
@@ -237,12 +237,52 @@
   <si>
     <t xml:space="preserve">That on-line sexual harassment is criminalised where: o the abuser intends a digital communication to cause harm, o a person would reasonably expect the person in the position of the victim to be harmed, and the individual suffers serious emotional distress. </t>
   </si>
+  <si>
+    <t>Depart Downtown Arrive at College Depart College Arrive Downtown 6:30 am 6:55 am 7:00 am 7:25 am 7:30 am 7:55 am 8:00 am 8:25 am 8:30 am 8:55 am 9:00 am 9:25 am 9:30 am 9:55 am 10:00 am 10:25 am 10:30 am 10:55 am 11:00 am 11:25 am 1:30 pm 1:55 pm 2:00 pm 2:25 pm 2:30 pm 2:55 pm 3:00 pm 3:25 pm 3:30 pm 3:55 pm 4:00 pm 4:25 pm 4:30 pm 4:55 pm 5:00 pm 5:25 pm</t>
+  </si>
+  <si>
+    <t>Depart Downtown Arrive/Depart College Arrive Downtown 6:00 am 6:40 am 7:20 am 6:40 am 7:20 am 8:00 am 7: 20 am 8:00 am 8:40 am 8:00 am 8:40 am 9:20 am 8:40 am 9:20 am 10:00 am 9:20 am 10:00 am 10:40 am 10:00 am 10:40 am 11:20 am 10:40 am 11:20 am 12:00 pm 11:20 am 12:00 pm 12:40 pm 12:00 pm 12:40 pm 1:20 pm 12:40 1:20 pm 2:00 pm 1:20 pm 2:00 pm 2:40 pm 2:00 pm 2:40 pm 3:20 pm 2:40 pm 3:20 pm 4:00 pm 3:20 pm 4:00 pm 4:40 pm 4:00 pm 4:40 pm 5:20 pm 4:40 pm 5:20 pm 6:00 pm 5:20 pm 6:00 pm 6:40 pm 6:00 pm 6:40 pm 7:20 pm 6:40 pm 7:20 pm 8:00 pm 7:20 pm 8:00 pm 8:40 pm 8:00 pm 8:40 pm 9:20 pm 8:40 pm 9:20 pm 10:00 pm 9:20 pm 10:00 pm 10:40 pm 10:00 pm 10:40 pm 11:20 pm 10:40 pm 11:20 pm 12:00 am</t>
+  </si>
+  <si>
+    <t>Three months ended June 30, Six months ended June 30, 2014 2013 2014 2013 Net sales $  112,464 $  111,157 $  213,581 $  201,451 Cost of goods sold 86,953 84,150 163,283 153,609 Gross profit 25,511 27,007 50,298 47,842 Selling, general and administrative expenses 20,433 16,609 37,396 31,179 Litigation settlements 90 190 Operating income 4,988 10,398 12,712 16,663 Other expense (income): Interest expense 2,319 1,598 4,626 2,991 Interest income (38) (166) (65) (264) Foreign exchange (gains) losses, net (633) 2,231 (1,307) 4,637 Income before income taxes 3,340 6,735 9,458 9,299 Income tax expense 1,387 2,184 3,584 3,807 Net income $  1,953 $  4,551 $  5,874 $  5,492 Other comprehensive income: Foreign currency translation adjustments 172 613 (484) 1,829 Comprehensive income $  2,125 $  5,164 $  5,390 $  7,321 Net income per share-basic and diluted $  0.10 $  0.22 $  0.29 $  0.27</t>
+  </si>
+  <si>
+    <t>2014 2013 Assets Current assets: Cash and cash equivalents $  16,091 $  21,903 Restricted cash 6,666 3,404 Accounts receivable, less allowance for doubtful accounts of $1,416 and $1,479 at June 30, 2014 and December 31, 2013, respectively 82,634 59,574 Inventories 116,872 119,477 Prepaids and other current assets 18,826 14,415 Deferred income taxes 9,030 10,551 Total current assets 250,119 229,324 Property, plant and equipment, net of accumulated depreciation of $39,965 and $39,007 at June 30, 2014 and December 31, 2013 respectively 70,924 74,558 Land rights, net 4,154 4,244 Deferred costs 18,364 18,732 Finance receivables from related parties 1,915 Intangible assets, net of accumulated amortization of $861 and $837 at June 30, 2014 and December 31, 2013, respectively 2,826 2,993 Deferred income taxes, long-term 7,772 7,758 Other long-term assets 1,707 1,741 Total assets $  355,866 $  341,265 Liabilities and Shareholders' Equity Current liabilities: Short-term loans and current portion of long-term debt $  138,711 $  122,840 Accounts payable 103,835 105,742 Accrued expenses and other current liabilities 59,208 62,539 Total current liabilities 301,754 291,121 Long-term debt, net of current portion 5,442 7,553 Income taxes payable, long-term 7,410 7,043 Legal settlements, net of current portion 31,232 30,941 Other long-term liabilities 512 427 Total liabilities 346,350 337,085 Commitments and contingencies Shareholders' equity: Common stock, CHF 1.00 par value; 41,107 shares authorized; 20,553    issued and outstanding at June 30, 2014 and December 31, 2013 22,048 22,048 Additional paid-in capital 2,553 901 Accumulated other comprehensive income 13,237 13,721 Retained deficit (28,322) (32,490) Total shareholders' equity 9,516 4,180 Total liabilities and shareholders' equity $  355,866 $  341,265</t>
+  </si>
+  <si>
+    <t>Date Meeting Subject Location Attendees 4-10-07 April - Joint meeting with WTS Kris Strickler and Danielle Cogan gave a presentation on the Columbia River Crossing project on the I-5 bridge that connects Oregon and Washington. Embassy Suites Hotel Portland, OR 60 5-18-07 May - Joint meeting with Oregon Traffic Control Devices Committee (OTCDC) Sections newly elected officers were announced and a presentation on the Highway 25 emergency reconstruction efforts that followed a large storm on Mt. Hood early 2007. Crowne Plaza Hotel, Lake Oswego, OR 45 7-15 to 7-18-07 Joint 2007 ITE Western District (District 6) Annual Meeting &amp; Quad Conference Oregon ITE section hosted a very successful joint 2007 ITE District 6 Annual Meeting &amp; Quad Conference in Portland. This year s annual meeting broke many previous records with over 500 meeting participants at the meeting. Hilton Hotel, Portland, OR 500 9-21-07 2007 Golf Tournament Due to timing of ITE District 6 conference in Portland, this year s golf tournament was held in late summer. We had good turn out and good corporate sponsorship donations. Oregon Golf Association (OGA) Golf Course, Woodburn, OR 57 9-25-07 September Meeting Jim Peters (DKS Associates) and Jay McCoy (City of Gresham) gave a presentation on the use of recent SCATS Adaptive Traffic Signal System in City of Gresham, Oregon. Kells Irish Pub Portland, OR 56 10-23-07 October Meeting Senator Rick Metsger, Chairman of the Senate Transportation Committee, discussed about congestion pricing and his  Moving Oregon  statewide transportation tour, and effort to build support for major investment in Oregon s transportation system. Hotel Monaco, Portland, OR 73 11-15-07 2007 Student Traffic Bowl Oregon ITE 16th Annual Student Traffic Bowl competition featured six universities from around the northwest. This year s 1st place prize went to University of Portland, while University of Washington and Oregon Institute of Technologies (OIT) both tied for 2nd place. McMenamins Edgefield Troutdale, OR 123 Including 52 students 1-29-08 January Technical Workshop The Section sponsored a workshop on tort, liability, ethics, and professionalism in transportation with featured speakers John Mason (Penn State University), Rayann Speakman (FHWA), Karen Dixon (Oregon State University), Mike Coleman (City of Portland), Brian Ray, Beth Wemple (Kittelson and Associates), and Ken Crowley (Oregon DOJ). ODOT Region 1 Portland, OR 48 4-2-08 Happy Hour Social gathering of the members and guests. Rogue Brewing, Portland TBD 4-8-08 April - Joint meeting with WTS Speakers scheduled: Gail Achterman, Chair of the Oregon Transportation Commission, and Richard Ford, Chair of the Washington State Transportation Commission University Place, Portland, OR TBD 5-9-08 Joint meeting with Oregon Traffic Control Devices Committee (OTCDC) This end of the year meeting will include announcement of the newly elected Oregon Section officers and will include a presentation on the TriMet Commuter Rail called WES (Westside Express Services) scheduled for completion in fall 2008. Hayden  s Grill, Tualatin, OR TBD</t>
+  </si>
+  <si>
+    <t>In the mid to later part of the 20th century, finance witnessed a revolution. The advent of the efficient markets hypothesis, the capital asset pricing model, and the Black/Scholes options pricing formula put the f ield on a new, solid scientific foundation. This world was built on the assumption that asset markets were powerful computational engines, and were able to aggregate and process the beliefs and demands of traders, leaving in prices the full set of properly processed information currently available. At the core of asset pricing, efficient market theories give a clean and compelling picture of the world which is as appealing to financial economists as it is potentially unappealing to financial practitioners.1 It is interesting to note that these foundations came with a very important computational dimension. The early availability of large machine-readable data sets, and the computational power to analyze them, laid the critical foundation for this new financial rigor.2 In agent-based computational models the computer is once again at the center of a change in thinking about financial markets. This time it is helping to pursue a world view in which agents may differ in many ways, not just in their information, but in their ability to process information, their attitudes toward risk, and in many other dimensions.</t>
+  </si>
+  <si>
+    <t>Lettau (1997) provides a good example of a computational model of this type. He implements a financial market model with a set of heterogeneous learning agents, that is simple, transparent, and easy to implement. The model is a portfolio choice environment where investors must decide what fraction of wealth to put in a risky asset. There is also a risk-free asset paying zero interest. The world is a repeated two-period model with myopic preferences based only on wealth in the second period. The risky asset has an exogenously given price and pays a random dividend, d, which follows a normal distribution. The second period wealth of agents is given by,</t>
+  </si>
+  <si>
+    <t>The exchange rate is given by et = p1,t p2,t . (11)</t>
+  </si>
+  <si>
+    <t>A common concern about all agent-based computational modeling is validation. The usual criticism leveled at agent-based financial markets is that there are too many degrees of freedom. Researchers are able not just to move freely through large parameter spaces, but can also change entire internal mechanisms at their discretion in the attempt to fit sets of stylized facts. Anyone using agent-based financial markets must acknowledge that there is some truth to these criticisms. However, these comments should not stop all experimentation. Furthermore, there are directions in which the field is moving that will give these markets a more solid foundation.</t>
+  </si>
+  <si>
+    <t>A final problem, often ignored, is timing. Almost all agent-based models need to make explicit assump tions about the timing of decisions, information, and trade. Of course, any asset pricing model needs to make these choices, but in analytic settings more events can be assumed to take place simultaneously. In the computer this sequence of events often needs to be spelled out. The degree to which results depend on arbitrary timing decisions is definitely important. One example that has been discussed here is the delayed price adjustment approach, where prices are adjusted based on current excess demand in the market. It is important to note that in a world of evolving strategies, this timing may have a large impact since the strategies themselves adapt to the specific timing and trading structures. It will be interesting to see if agent-based financial models start permitting actions to take place more asynchronously, and if this has an
+ impact on any of the early results.</t>
+  </si>
+  <si>
+    <t>Models in the realm of agent-based computational finance view financial markets as interacting groups of learning, boundedly-rational agents. The computer may or may not be a necessary tool to understand the dynamics of these markets. This survey will concentrate on the cases where analytic solutions would be impossible, and computational tools are necessary.3 It is important to distinguish agent-based models from other more general heterogeneous agent models in finance, since the latter have been part of the field for some time.4 In agent-based financial markets, dynamic heterogeneity is critical. This heterogeneity is represented by a distribution of agents, or wealth, across either a fixed or changing set of strategies. In principle, optimizing agents would respond optimally to this distribution of other agent strategies, but in general, this state space is far too complicated to begin to calculate an optimal strategy, forcing some form of bounded rationality on both agents and the modeler. It is important to note that in these worlds bounded rationality is driven by the complexity of the state space more than the perceived limitations of individual agents. It is also important to remember that the simplified rules of thumb used by agents do not suggest that the exercise is forcing some sort of simplified solution on the dynamics of the steady state or the model,</t>
+  </si>
+  <si>
+    <t>Probably the most important question is the design of the economic environment itself. What types of securities will be traded? Will there be some kind of fundamental value, and how does this move? Is there an attempt to model a large subset of the macro economy or just a very specific financial market? As in any economic modeling situation these are not easy questions. In the case of agent-based models they are often more complicated, since the accepted knowledge of how to craft good and interesting worlds of heterogeneous agents is still not something economists are very good at. It is not clear that the knowledge base for building representative agent macro economies will necessarily carry over into the agent-based world. This design question is probably the most important, and the most difficult to give guidance on.</t>
+  </si>
+  <si>
+    <t>financial markets particularly appealing applications agentbased methods several reasons first key debates nance market eciency rationality still unresolved second nancial time series contain many curious puzzles well understood third nancial markets provide wealth pricing volume data analyzed fourth considering evolution nancial markets provide good approximation crude tness measure wealth return performance finally strong connections relevant experimental results cases operate time scales actual nancial markets</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +323,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -310,12 +355,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,428 +681,484 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB2B0B8-EAD3-7344-9E32-2D8AC9F40062}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20" t="s">
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" t="s">
+      <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/document_questions.xlsx
+++ b/document_questions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\J C SINGLA\Downloads\External - take_home_challenge_(withJSONs)\take_home_challenge_(withJSONs)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1318BC1-8C42-428E-8A5F-9DB4989A5CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C83D7D9-C522-44EF-9399-C0FEE1726D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{64669878-3704-284B-BBDF-504411B4B1AF}"/>
   </bookViews>
@@ -329,7 +329,7 @@
       <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +340,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -360,11 +366,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,478 +687,477 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB2B0B8-EAD3-7344-9E32-2D8AC9F40062}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="111" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.6640625" style="2"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>44</v>
       </c>
     </row>
